--- a/Reports/Modbus DOCMB_Report_Iteration_1.xlsx
+++ b/Reports/Modbus DOCMB_Report_Iteration_1.xlsx
@@ -2461,7 +2461,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="69">
+  <fills count="71">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2823,28 +2823,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="18"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="18"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="18"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="none">
         <fgColor indexed="10"/>
       </patternFill>
@@ -2856,12 +2834,44 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="23"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="23"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="18"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
       </patternFill>
     </fill>
   </fills>
@@ -3603,7 +3613,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="618">
+  <cellXfs count="269">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="24" fontId="25" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="28" fontId="27" numFmtId="0" xfId="0">
@@ -4144,8 +4154,8 @@
     <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="52" fontId="40" numFmtId="0" xfId="43">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="64" fontId="43" numFmtId="0" xfId="47" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="68" fontId="43" numFmtId="0" xfId="47" applyFill="true">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="46" fontId="20" numFmtId="0" xfId="48">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4324,1071 +4334,19 @@
     <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="0" xfId="0" applyFill="true">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -5408,6 +4366,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9507,7 +8468,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="L2" t="s" s="258">
+      <c r="L2" t="s" s="257">
         <v>30</v>
       </c>
     </row>
@@ -9545,7 +8506,7 @@
       <c r="K3" t="s">
         <v>598</v>
       </c>
-      <c r="L3" t="s" s="260">
+      <c r="L3" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M3" s="197"/>
@@ -9594,7 +8555,7 @@
       <c r="K4" t="s">
         <v>598</v>
       </c>
-      <c r="L4" t="s" s="271">
+      <c r="L4" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M4" s="197"/>
@@ -9643,7 +8604,7 @@
       <c r="K5" t="s">
         <v>598</v>
       </c>
-      <c r="L5" t="s" s="282">
+      <c r="L5" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M5" s="197"/>
@@ -9692,7 +8653,7 @@
       <c r="K6" t="s">
         <v>598</v>
       </c>
-      <c r="L6" t="s" s="293">
+      <c r="L6" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M6" s="197"/>
@@ -9741,7 +8702,7 @@
       <c r="K7" t="s">
         <v>598</v>
       </c>
-      <c r="L7" t="s" s="304">
+      <c r="L7" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M7" s="197"/>
@@ -9790,7 +8751,7 @@
       <c r="K8" t="s">
         <v>598</v>
       </c>
-      <c r="L8" t="s" s="315">
+      <c r="L8" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M8" s="197"/>
@@ -9839,7 +8800,7 @@
       <c r="K9" t="s">
         <v>598</v>
       </c>
-      <c r="L9" t="s" s="326">
+      <c r="L9" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M9" s="197"/>
@@ -9888,7 +8849,7 @@
       <c r="K10" t="s">
         <v>598</v>
       </c>
-      <c r="L10" t="s" s="337">
+      <c r="L10" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M10" s="197"/>
@@ -9937,7 +8898,7 @@
       <c r="K11" t="s">
         <v>598</v>
       </c>
-      <c r="L11" t="s" s="348">
+      <c r="L11" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M11" s="197"/>
@@ -9986,7 +8947,7 @@
       <c r="K12" t="s">
         <v>598</v>
       </c>
-      <c r="L12" t="s" s="359">
+      <c r="L12" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M12" s="197"/>
@@ -10035,7 +8996,7 @@
       <c r="K13" t="s">
         <v>598</v>
       </c>
-      <c r="L13" t="s" s="370">
+      <c r="L13" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M13" s="197"/>
@@ -10084,7 +9045,7 @@
       <c r="K14" t="s">
         <v>598</v>
       </c>
-      <c r="L14" t="s" s="381">
+      <c r="L14" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M14" s="197"/>
@@ -10133,7 +9094,7 @@
       <c r="K15" t="s">
         <v>598</v>
       </c>
-      <c r="L15" t="s" s="392">
+      <c r="L15" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M15" s="197"/>
@@ -10182,7 +9143,7 @@
       <c r="K16" t="s">
         <v>598</v>
       </c>
-      <c r="L16" t="s" s="403">
+      <c r="L16" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M16" s="197"/>
@@ -10231,7 +9192,7 @@
       <c r="K17" t="s">
         <v>598</v>
       </c>
-      <c r="L17" t="s" s="414">
+      <c r="L17" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M17" s="197"/>
@@ -10280,7 +9241,7 @@
       <c r="K18" t="s">
         <v>598</v>
       </c>
-      <c r="L18" t="s" s="425">
+      <c r="L18" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M18" s="197"/>
@@ -10329,7 +9290,7 @@
       <c r="K19" t="s">
         <v>598</v>
       </c>
-      <c r="L19" t="s" s="436">
+      <c r="L19" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M19" s="197"/>
@@ -10378,7 +9339,7 @@
       <c r="K20" t="s">
         <v>598</v>
       </c>
-      <c r="L20" t="s" s="447">
+      <c r="L20" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M20" s="197"/>
@@ -10427,7 +9388,7 @@
       <c r="K21" t="s">
         <v>598</v>
       </c>
-      <c r="L21" t="s" s="458">
+      <c r="L21" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M21" s="197"/>
@@ -10476,7 +9437,7 @@
       <c r="K22" t="s">
         <v>598</v>
       </c>
-      <c r="L22" t="s" s="469">
+      <c r="L22" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M22" s="197"/>
@@ -10525,7 +9486,7 @@
       <c r="K23" t="s">
         <v>598</v>
       </c>
-      <c r="L23" t="s" s="480">
+      <c r="L23" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M23" s="197"/>
@@ -10574,7 +9535,7 @@
       <c r="K24" t="s">
         <v>598</v>
       </c>
-      <c r="L24" t="s" s="491">
+      <c r="L24" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M24" s="197"/>
@@ -10623,7 +9584,7 @@
       <c r="K25" t="s">
         <v>598</v>
       </c>
-      <c r="L25" t="s" s="502">
+      <c r="L25" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M25" s="197"/>
@@ -10672,7 +9633,7 @@
       <c r="K26" t="s">
         <v>598</v>
       </c>
-      <c r="L26" t="s" s="513">
+      <c r="L26" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M26" s="197"/>
@@ -10721,7 +9682,7 @@
       <c r="K27" t="s">
         <v>598</v>
       </c>
-      <c r="L27" t="s" s="524">
+      <c r="L27" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M27" s="197"/>
@@ -10770,7 +9731,7 @@
       <c r="K28" t="s">
         <v>598</v>
       </c>
-      <c r="L28" t="s" s="535">
+      <c r="L28" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M28" s="197"/>
@@ -10819,7 +9780,7 @@
       <c r="K29" t="s">
         <v>598</v>
       </c>
-      <c r="L29" t="s" s="546">
+      <c r="L29" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M29" s="197"/>
@@ -10868,7 +9829,7 @@
       <c r="K30" t="s">
         <v>598</v>
       </c>
-      <c r="L30" t="s" s="557">
+      <c r="L30" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M30" s="197"/>
@@ -10917,7 +9878,7 @@
       <c r="K31" t="s">
         <v>598</v>
       </c>
-      <c r="L31" t="s" s="568">
+      <c r="L31" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M31" s="197"/>
@@ -10966,7 +9927,7 @@
       <c r="K32" t="s">
         <v>598</v>
       </c>
-      <c r="L32" t="s" s="579">
+      <c r="L32" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M32" s="197"/>
@@ -11015,7 +9976,7 @@
       <c r="K33" t="s">
         <v>598</v>
       </c>
-      <c r="L33" t="s" s="590">
+      <c r="L33" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M33" s="197"/>
@@ -11064,7 +10025,7 @@
       <c r="K34" t="s">
         <v>598</v>
       </c>
-      <c r="L34" t="s" s="601">
+      <c r="L34" t="s" s="256">
         <v>284</v>
       </c>
       <c r="M34" s="197"/>
@@ -11474,43 +10435,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="256">
+      <c r="A1" t="s" s="260">
         <v>590</v>
       </c>
-      <c r="B1" t="s" s="256">
+      <c r="B1" t="s" s="260">
         <v>591</v>
       </c>
-      <c r="C1" t="s" s="256">
+      <c r="C1" t="s" s="260">
         <v>592</v>
       </c>
-      <c r="D1" t="s" s="256">
+      <c r="D1" t="s" s="260">
         <v>593</v>
       </c>
-      <c r="E1" t="s" s="256">
+      <c r="E1" t="s" s="260">
         <v>594</v>
       </c>
-      <c r="F1" t="s" s="256">
+      <c r="F1" t="s" s="260">
         <v>595</v>
       </c>
-      <c r="G1" t="s" s="611">
+      <c r="G1" t="s" s="261">
         <v>583</v>
       </c>
-      <c r="I1" t="s" s="612">
+      <c r="I1" t="s" s="262">
         <v>662</v>
       </c>
-      <c r="K1" t="s" s="613">
+      <c r="K1" t="s" s="263">
         <v>663</v>
       </c>
-      <c r="M1" t="s" s="614">
+      <c r="M1" t="s" s="264">
         <v>664</v>
       </c>
-      <c r="O1" t="s" s="615">
+      <c r="O1" t="s" s="265">
         <v>665</v>
       </c>
-      <c r="Q1" t="s" s="616">
+      <c r="Q1" t="s" s="266">
         <v>666</v>
       </c>
-      <c r="S1" t="s" s="617">
+      <c r="S1" t="s" s="267">
         <v>667</v>
       </c>
     </row>
@@ -11530,9 +10491,7 @@
       <c r="K2" t="s">
         <v>660</v>
       </c>
-      <c r="L2" t="s">
-        <v>661</v>
-      </c>
+      <c r="L2" s="268"/>
       <c r="M2" t="s">
         <v>660</v>
       </c>
@@ -11564,12 +10523,12 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="259">
+      <c r="A4" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="261">
+      <c r="B5" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C5" t="s">
@@ -11587,53 +10546,53 @@
       <c r="G5" t="s">
         <v>602</v>
       </c>
-      <c r="H5" t="s" s="262">
+      <c r="H5" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I5" t="s">
         <v>604</v>
       </c>
-      <c r="J5" t="s" s="263">
+      <c r="J5" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K5" t="s">
         <v>605</v>
       </c>
-      <c r="L5" t="s" s="264">
+      <c r="L5" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M5" t="s">
         <v>606</v>
       </c>
-      <c r="N5" t="s" s="265">
+      <c r="N5" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O5" t="s">
         <v>607</v>
       </c>
-      <c r="P5" t="s" s="266">
+      <c r="P5" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q5" t="s">
         <v>372</v>
       </c>
-      <c r="R5" t="s" s="267">
-        <v>603</v>
-      </c>
-      <c r="S5" t="s" s="268">
-        <v>603</v>
-      </c>
-      <c r="T5" t="s" s="269">
+      <c r="R5" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S5" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T5" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="270">
+      <c r="A6" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="s" s="272">
+      <c r="B7" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C7" t="s">
@@ -11651,53 +10610,53 @@
       <c r="G7" t="s">
         <v>602</v>
       </c>
-      <c r="H7" t="s" s="273">
+      <c r="H7" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I7" t="s">
         <v>604</v>
       </c>
-      <c r="J7" t="s" s="274">
+      <c r="J7" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K7" t="s">
         <v>605</v>
       </c>
-      <c r="L7" t="s" s="275">
+      <c r="L7" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M7" t="s">
         <v>606</v>
       </c>
-      <c r="N7" t="s" s="276">
+      <c r="N7" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O7" t="s">
         <v>609</v>
       </c>
-      <c r="P7" t="s" s="277">
+      <c r="P7" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q7" t="s">
         <v>610</v>
       </c>
-      <c r="R7" t="s" s="278">
-        <v>603</v>
-      </c>
-      <c r="S7" t="s" s="279">
-        <v>603</v>
-      </c>
-      <c r="T7" t="s" s="280">
+      <c r="R7" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S7" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T7" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="281">
+      <c r="A8" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="s" s="283">
+      <c r="B9" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C9" t="s">
@@ -11715,53 +10674,53 @@
       <c r="G9" t="s">
         <v>602</v>
       </c>
-      <c r="H9" t="s" s="284">
+      <c r="H9" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I9" t="s">
         <v>604</v>
       </c>
-      <c r="J9" t="s" s="285">
+      <c r="J9" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K9" t="s">
         <v>605</v>
       </c>
-      <c r="L9" t="s" s="286">
+      <c r="L9" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M9" t="s">
         <v>606</v>
       </c>
-      <c r="N9" t="s" s="287">
+      <c r="N9" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O9" t="s">
         <v>612</v>
       </c>
-      <c r="P9" t="s" s="288">
+      <c r="P9" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q9" t="s">
         <v>613</v>
       </c>
-      <c r="R9" t="s" s="289">
-        <v>603</v>
-      </c>
-      <c r="S9" t="s" s="290">
-        <v>603</v>
-      </c>
-      <c r="T9" t="s" s="291">
+      <c r="R9" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S9" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T9" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="292">
+      <c r="A10" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="294">
+      <c r="B11" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C11" t="s">
@@ -11779,53 +10738,53 @@
       <c r="G11" t="s">
         <v>602</v>
       </c>
-      <c r="H11" t="s" s="295">
+      <c r="H11" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I11" t="s">
         <v>604</v>
       </c>
-      <c r="J11" t="s" s="296">
+      <c r="J11" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K11" t="s">
         <v>605</v>
       </c>
-      <c r="L11" t="s" s="297">
+      <c r="L11" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M11" t="s">
         <v>606</v>
       </c>
-      <c r="N11" t="s" s="298">
+      <c r="N11" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O11" t="s">
         <v>615</v>
       </c>
-      <c r="P11" t="s" s="299">
+      <c r="P11" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q11" t="s">
         <v>613</v>
       </c>
-      <c r="R11" t="s" s="300">
-        <v>603</v>
-      </c>
-      <c r="S11" t="s" s="301">
-        <v>603</v>
-      </c>
-      <c r="T11" t="s" s="302">
+      <c r="R11" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S11" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T11" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="303">
+      <c r="A12" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="305">
+      <c r="B13" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C13" t="s">
@@ -11843,53 +10802,53 @@
       <c r="G13" t="s">
         <v>602</v>
       </c>
-      <c r="H13" t="s" s="306">
+      <c r="H13" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I13" t="s">
         <v>617</v>
       </c>
-      <c r="J13" t="s" s="307">
+      <c r="J13" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K13" t="s">
         <v>618</v>
       </c>
-      <c r="L13" t="s" s="308">
+      <c r="L13" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M13" t="s">
         <v>606</v>
       </c>
-      <c r="N13" t="s" s="309">
+      <c r="N13" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O13" t="s">
         <v>607</v>
       </c>
-      <c r="P13" t="s" s="310">
+      <c r="P13" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q13" t="s">
         <v>372</v>
       </c>
-      <c r="R13" t="s" s="311">
-        <v>603</v>
-      </c>
-      <c r="S13" t="s" s="312">
-        <v>603</v>
-      </c>
-      <c r="T13" t="s" s="313">
+      <c r="R13" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S13" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T13" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="314">
+      <c r="A14" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="316">
+      <c r="B15" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C15" t="s">
@@ -11907,53 +10866,53 @@
       <c r="G15" t="s">
         <v>602</v>
       </c>
-      <c r="H15" t="s" s="317">
+      <c r="H15" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I15" t="s">
         <v>617</v>
       </c>
-      <c r="J15" t="s" s="318">
+      <c r="J15" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K15" t="s">
         <v>618</v>
       </c>
-      <c r="L15" t="s" s="319">
+      <c r="L15" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M15" t="s">
         <v>606</v>
       </c>
-      <c r="N15" t="s" s="320">
+      <c r="N15" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O15" t="s">
         <v>609</v>
       </c>
-      <c r="P15" t="s" s="321">
+      <c r="P15" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q15" t="s">
         <v>610</v>
       </c>
-      <c r="R15" t="s" s="322">
-        <v>603</v>
-      </c>
-      <c r="S15" t="s" s="323">
-        <v>603</v>
-      </c>
-      <c r="T15" t="s" s="324">
+      <c r="R15" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S15" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T15" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="325">
+      <c r="A16" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="327">
+      <c r="B17" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C17" t="s">
@@ -11971,53 +10930,53 @@
       <c r="G17" t="s">
         <v>602</v>
       </c>
-      <c r="H17" t="s" s="328">
+      <c r="H17" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I17" t="s">
         <v>617</v>
       </c>
-      <c r="J17" t="s" s="329">
+      <c r="J17" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K17" t="s">
         <v>618</v>
       </c>
-      <c r="L17" t="s" s="330">
+      <c r="L17" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M17" t="s">
         <v>606</v>
       </c>
-      <c r="N17" t="s" s="331">
+      <c r="N17" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O17" t="s">
         <v>612</v>
       </c>
-      <c r="P17" t="s" s="332">
+      <c r="P17" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q17" t="s">
         <v>613</v>
       </c>
-      <c r="R17" t="s" s="333">
-        <v>603</v>
-      </c>
-      <c r="S17" t="s" s="334">
-        <v>603</v>
-      </c>
-      <c r="T17" t="s" s="335">
+      <c r="R17" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S17" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T17" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="336">
+      <c r="A18" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="338">
+      <c r="B19" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C19" t="s">
@@ -12035,53 +10994,53 @@
       <c r="G19" t="s">
         <v>602</v>
       </c>
-      <c r="H19" t="s" s="339">
+      <c r="H19" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I19" t="s">
         <v>617</v>
       </c>
-      <c r="J19" t="s" s="340">
+      <c r="J19" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K19" t="s">
         <v>618</v>
       </c>
-      <c r="L19" t="s" s="341">
+      <c r="L19" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M19" t="s">
         <v>606</v>
       </c>
-      <c r="N19" t="s" s="342">
+      <c r="N19" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O19" t="s">
         <v>615</v>
       </c>
-      <c r="P19" t="s" s="343">
+      <c r="P19" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q19" t="s">
         <v>613</v>
       </c>
-      <c r="R19" t="s" s="344">
-        <v>603</v>
-      </c>
-      <c r="S19" t="s" s="345">
-        <v>603</v>
-      </c>
-      <c r="T19" t="s" s="346">
+      <c r="R19" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S19" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T19" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="347">
+      <c r="A20" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="349">
+      <c r="B21" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C21" t="s">
@@ -12099,53 +11058,53 @@
       <c r="G21" t="s">
         <v>602</v>
       </c>
-      <c r="H21" t="s" s="350">
+      <c r="H21" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I21" t="s">
         <v>623</v>
       </c>
-      <c r="J21" t="s" s="351">
+      <c r="J21" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K21" t="s">
         <v>624</v>
       </c>
-      <c r="L21" t="s" s="352">
+      <c r="L21" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M21" t="s">
         <v>625</v>
       </c>
-      <c r="N21" t="s" s="353">
+      <c r="N21" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O21" t="s">
         <v>607</v>
       </c>
-      <c r="P21" t="s" s="354">
+      <c r="P21" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q21" t="s">
         <v>372</v>
       </c>
-      <c r="R21" t="s" s="355">
-        <v>603</v>
-      </c>
-      <c r="S21" t="s" s="356">
-        <v>603</v>
-      </c>
-      <c r="T21" t="s" s="357">
+      <c r="R21" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S21" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T21" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="358">
+      <c r="A22" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="360">
+      <c r="B23" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C23" t="s">
@@ -12163,53 +11122,53 @@
       <c r="G23" t="s">
         <v>602</v>
       </c>
-      <c r="H23" t="s" s="361">
+      <c r="H23" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I23" t="s">
         <v>623</v>
       </c>
-      <c r="J23" t="s" s="362">
+      <c r="J23" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K23" t="s">
         <v>624</v>
       </c>
-      <c r="L23" t="s" s="363">
+      <c r="L23" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M23" t="s">
         <v>625</v>
       </c>
-      <c r="N23" t="s" s="364">
+      <c r="N23" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O23" t="s">
         <v>609</v>
       </c>
-      <c r="P23" t="s" s="365">
+      <c r="P23" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q23" t="s">
         <v>610</v>
       </c>
-      <c r="R23" t="s" s="366">
-        <v>603</v>
-      </c>
-      <c r="S23" t="s" s="367">
-        <v>603</v>
-      </c>
-      <c r="T23" t="s" s="368">
+      <c r="R23" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S23" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T23" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="369">
+      <c r="A24" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="371">
+      <c r="B25" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C25" t="s">
@@ -12227,53 +11186,53 @@
       <c r="G25" t="s">
         <v>602</v>
       </c>
-      <c r="H25" t="s" s="372">
+      <c r="H25" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I25" t="s">
         <v>623</v>
       </c>
-      <c r="J25" t="s" s="373">
+      <c r="J25" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K25" t="s">
         <v>624</v>
       </c>
-      <c r="L25" t="s" s="374">
+      <c r="L25" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M25" t="s">
         <v>625</v>
       </c>
-      <c r="N25" t="s" s="375">
+      <c r="N25" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O25" t="s">
         <v>612</v>
       </c>
-      <c r="P25" t="s" s="376">
+      <c r="P25" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q25" t="s">
         <v>613</v>
       </c>
-      <c r="R25" t="s" s="377">
-        <v>603</v>
-      </c>
-      <c r="S25" t="s" s="378">
-        <v>603</v>
-      </c>
-      <c r="T25" t="s" s="379">
+      <c r="R25" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S25" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T25" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="380">
+      <c r="A26" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="382">
+      <c r="B27" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C27" t="s">
@@ -12291,53 +11250,53 @@
       <c r="G27" t="s">
         <v>602</v>
       </c>
-      <c r="H27" t="s" s="383">
+      <c r="H27" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I27" t="s">
         <v>623</v>
       </c>
-      <c r="J27" t="s" s="384">
+      <c r="J27" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K27" t="s">
         <v>624</v>
       </c>
-      <c r="L27" t="s" s="385">
+      <c r="L27" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M27" t="s">
         <v>625</v>
       </c>
-      <c r="N27" t="s" s="386">
+      <c r="N27" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O27" t="s">
         <v>615</v>
       </c>
-      <c r="P27" t="s" s="387">
+      <c r="P27" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q27" t="s">
         <v>613</v>
       </c>
-      <c r="R27" t="s" s="388">
-        <v>603</v>
-      </c>
-      <c r="S27" t="s" s="389">
-        <v>603</v>
-      </c>
-      <c r="T27" t="s" s="390">
+      <c r="R27" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S27" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T27" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="391">
+      <c r="A28" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="393">
+      <c r="B29" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C29" t="s">
@@ -12355,53 +11314,53 @@
       <c r="G29" t="s">
         <v>602</v>
       </c>
-      <c r="H29" t="s" s="394">
+      <c r="H29" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I29" t="s">
         <v>623</v>
       </c>
-      <c r="J29" t="s" s="395">
+      <c r="J29" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K29" t="s">
         <v>630</v>
       </c>
-      <c r="L29" t="s" s="396">
+      <c r="L29" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M29" t="s">
         <v>625</v>
       </c>
-      <c r="N29" t="s" s="397">
+      <c r="N29" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O29" t="s">
         <v>607</v>
       </c>
-      <c r="P29" t="s" s="398">
+      <c r="P29" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q29" t="s">
         <v>372</v>
       </c>
-      <c r="R29" t="s" s="399">
-        <v>603</v>
-      </c>
-      <c r="S29" t="s" s="400">
-        <v>603</v>
-      </c>
-      <c r="T29" t="s" s="401">
+      <c r="R29" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S29" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T29" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="402">
+      <c r="A30" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="404">
+      <c r="B31" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C31" t="s">
@@ -12419,53 +11378,53 @@
       <c r="G31" t="s">
         <v>602</v>
       </c>
-      <c r="H31" t="s" s="405">
+      <c r="H31" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I31" t="s">
         <v>623</v>
       </c>
-      <c r="J31" t="s" s="406">
+      <c r="J31" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K31" t="s">
         <v>630</v>
       </c>
-      <c r="L31" t="s" s="407">
+      <c r="L31" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M31" t="s">
         <v>625</v>
       </c>
-      <c r="N31" t="s" s="408">
+      <c r="N31" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O31" t="s">
         <v>609</v>
       </c>
-      <c r="P31" t="s" s="409">
+      <c r="P31" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q31" t="s">
         <v>610</v>
       </c>
-      <c r="R31" t="s" s="410">
-        <v>603</v>
-      </c>
-      <c r="S31" t="s" s="411">
-        <v>603</v>
-      </c>
-      <c r="T31" t="s" s="412">
+      <c r="R31" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S31" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T31" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="413">
+      <c r="A32" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="415">
+      <c r="B33" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C33" t="s">
@@ -12483,53 +11442,53 @@
       <c r="G33" t="s">
         <v>602</v>
       </c>
-      <c r="H33" t="s" s="416">
+      <c r="H33" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I33" t="s">
         <v>623</v>
       </c>
-      <c r="J33" t="s" s="417">
+      <c r="J33" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K33" t="s">
         <v>630</v>
       </c>
-      <c r="L33" t="s" s="418">
+      <c r="L33" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M33" t="s">
         <v>625</v>
       </c>
-      <c r="N33" t="s" s="419">
+      <c r="N33" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O33" t="s">
         <v>612</v>
       </c>
-      <c r="P33" t="s" s="420">
+      <c r="P33" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q33" t="s">
         <v>613</v>
       </c>
-      <c r="R33" t="s" s="421">
-        <v>603</v>
-      </c>
-      <c r="S33" t="s" s="422">
-        <v>603</v>
-      </c>
-      <c r="T33" t="s" s="423">
+      <c r="R33" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S33" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T33" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="424">
+      <c r="A34" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="426">
+      <c r="B35" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C35" t="s">
@@ -12547,53 +11506,53 @@
       <c r="G35" t="s">
         <v>602</v>
       </c>
-      <c r="H35" t="s" s="427">
+      <c r="H35" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I35" t="s">
         <v>623</v>
       </c>
-      <c r="J35" t="s" s="428">
+      <c r="J35" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K35" t="s">
         <v>630</v>
       </c>
-      <c r="L35" t="s" s="429">
+      <c r="L35" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M35" t="s">
         <v>625</v>
       </c>
-      <c r="N35" t="s" s="430">
+      <c r="N35" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O35" t="s">
         <v>615</v>
       </c>
-      <c r="P35" t="s" s="431">
+      <c r="P35" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q35" t="s">
         <v>613</v>
       </c>
-      <c r="R35" t="s" s="432">
-        <v>603</v>
-      </c>
-      <c r="S35" t="s" s="433">
-        <v>603</v>
-      </c>
-      <c r="T35" t="s" s="434">
+      <c r="R35" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S35" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T35" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="435">
+      <c r="A36" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="437">
+      <c r="B37" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C37" t="s">
@@ -12611,53 +11570,53 @@
       <c r="G37" t="s">
         <v>602</v>
       </c>
-      <c r="H37" t="s" s="438">
+      <c r="H37" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I37" t="s">
         <v>635</v>
       </c>
-      <c r="J37" t="s" s="439">
+      <c r="J37" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K37" t="s">
         <v>636</v>
       </c>
-      <c r="L37" t="s" s="440">
+      <c r="L37" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M37" t="s">
         <v>625</v>
       </c>
-      <c r="N37" t="s" s="441">
+      <c r="N37" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O37" t="s">
         <v>607</v>
       </c>
-      <c r="P37" t="s" s="442">
+      <c r="P37" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q37" t="s">
         <v>372</v>
       </c>
-      <c r="R37" t="s" s="443">
-        <v>603</v>
-      </c>
-      <c r="S37" t="s" s="444">
-        <v>603</v>
-      </c>
-      <c r="T37" t="s" s="445">
+      <c r="R37" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S37" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T37" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="446">
+      <c r="A38" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="448">
+      <c r="B39" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C39" t="s">
@@ -12675,53 +11634,53 @@
       <c r="G39" t="s">
         <v>602</v>
       </c>
-      <c r="H39" t="s" s="449">
+      <c r="H39" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I39" t="s">
         <v>635</v>
       </c>
-      <c r="J39" t="s" s="450">
+      <c r="J39" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K39" t="s">
         <v>636</v>
       </c>
-      <c r="L39" t="s" s="451">
+      <c r="L39" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M39" t="s">
         <v>625</v>
       </c>
-      <c r="N39" t="s" s="452">
+      <c r="N39" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O39" t="s">
         <v>609</v>
       </c>
-      <c r="P39" t="s" s="453">
+      <c r="P39" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q39" t="s">
         <v>610</v>
       </c>
-      <c r="R39" t="s" s="454">
-        <v>603</v>
-      </c>
-      <c r="S39" t="s" s="455">
-        <v>603</v>
-      </c>
-      <c r="T39" t="s" s="456">
+      <c r="R39" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S39" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T39" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="457">
+      <c r="A40" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="459">
+      <c r="B41" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C41" t="s">
@@ -12739,53 +11698,53 @@
       <c r="G41" t="s">
         <v>602</v>
       </c>
-      <c r="H41" t="s" s="460">
+      <c r="H41" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I41" t="s">
         <v>635</v>
       </c>
-      <c r="J41" t="s" s="461">
+      <c r="J41" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K41" t="s">
         <v>636</v>
       </c>
-      <c r="L41" t="s" s="462">
+      <c r="L41" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M41" t="s">
         <v>625</v>
       </c>
-      <c r="N41" t="s" s="463">
+      <c r="N41" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O41" t="s">
         <v>612</v>
       </c>
-      <c r="P41" t="s" s="464">
+      <c r="P41" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q41" t="s">
         <v>613</v>
       </c>
-      <c r="R41" t="s" s="465">
-        <v>603</v>
-      </c>
-      <c r="S41" t="s" s="466">
-        <v>603</v>
-      </c>
-      <c r="T41" t="s" s="467">
+      <c r="R41" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S41" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T41" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="468">
+      <c r="A42" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="470">
+      <c r="B43" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C43" t="s">
@@ -12803,53 +11762,53 @@
       <c r="G43" t="s">
         <v>602</v>
       </c>
-      <c r="H43" t="s" s="471">
+      <c r="H43" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I43" t="s">
         <v>635</v>
       </c>
-      <c r="J43" t="s" s="472">
+      <c r="J43" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K43" t="s">
         <v>636</v>
       </c>
-      <c r="L43" t="s" s="473">
+      <c r="L43" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M43" t="s">
         <v>625</v>
       </c>
-      <c r="N43" t="s" s="474">
+      <c r="N43" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O43" t="s">
         <v>615</v>
       </c>
-      <c r="P43" t="s" s="475">
+      <c r="P43" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q43" t="s">
         <v>613</v>
       </c>
-      <c r="R43" t="s" s="476">
-        <v>603</v>
-      </c>
-      <c r="S43" t="s" s="477">
-        <v>603</v>
-      </c>
-      <c r="T43" t="s" s="478">
+      <c r="R43" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S43" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T43" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="479">
+      <c r="A44" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="481">
+      <c r="B45" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C45" t="s">
@@ -12867,53 +11826,53 @@
       <c r="G45" t="s">
         <v>602</v>
       </c>
-      <c r="H45" t="s" s="482">
+      <c r="H45" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I45" t="s">
         <v>641</v>
       </c>
-      <c r="J45" t="s" s="483">
+      <c r="J45" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K45" t="s">
         <v>642</v>
       </c>
-      <c r="L45" t="s" s="484">
+      <c r="L45" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M45" t="s">
         <v>643</v>
       </c>
-      <c r="N45" t="s" s="485">
+      <c r="N45" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O45" t="s">
         <v>607</v>
       </c>
-      <c r="P45" t="s" s="486">
+      <c r="P45" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q45" t="s">
         <v>372</v>
       </c>
-      <c r="R45" t="s" s="487">
-        <v>603</v>
-      </c>
-      <c r="S45" t="s" s="488">
-        <v>603</v>
-      </c>
-      <c r="T45" t="s" s="489">
+      <c r="R45" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S45" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T45" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="490">
+      <c r="A46" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="492">
+      <c r="B47" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C47" t="s">
@@ -12931,53 +11890,53 @@
       <c r="G47" t="s">
         <v>602</v>
       </c>
-      <c r="H47" t="s" s="493">
+      <c r="H47" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I47" t="s">
         <v>641</v>
       </c>
-      <c r="J47" t="s" s="494">
+      <c r="J47" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K47" t="s">
         <v>642</v>
       </c>
-      <c r="L47" t="s" s="495">
+      <c r="L47" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M47" t="s">
         <v>643</v>
       </c>
-      <c r="N47" t="s" s="496">
+      <c r="N47" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O47" t="s">
         <v>609</v>
       </c>
-      <c r="P47" t="s" s="497">
+      <c r="P47" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q47" t="s">
         <v>610</v>
       </c>
-      <c r="R47" t="s" s="498">
-        <v>603</v>
-      </c>
-      <c r="S47" t="s" s="499">
-        <v>603</v>
-      </c>
-      <c r="T47" t="s" s="500">
+      <c r="R47" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S47" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T47" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="501">
+      <c r="A48" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="503">
+      <c r="B49" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C49" t="s">
@@ -12995,53 +11954,53 @@
       <c r="G49" t="s">
         <v>602</v>
       </c>
-      <c r="H49" t="s" s="504">
+      <c r="H49" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I49" t="s">
         <v>641</v>
       </c>
-      <c r="J49" t="s" s="505">
+      <c r="J49" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K49" t="s">
         <v>642</v>
       </c>
-      <c r="L49" t="s" s="506">
+      <c r="L49" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M49" t="s">
         <v>643</v>
       </c>
-      <c r="N49" t="s" s="507">
+      <c r="N49" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O49" t="s">
         <v>612</v>
       </c>
-      <c r="P49" t="s" s="508">
+      <c r="P49" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q49" t="s">
         <v>613</v>
       </c>
-      <c r="R49" t="s" s="509">
-        <v>603</v>
-      </c>
-      <c r="S49" t="s" s="510">
-        <v>603</v>
-      </c>
-      <c r="T49" t="s" s="511">
+      <c r="R49" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S49" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T49" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="512">
+      <c r="A50" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="514">
+      <c r="B51" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C51" t="s">
@@ -13059,53 +12018,53 @@
       <c r="G51" t="s">
         <v>602</v>
       </c>
-      <c r="H51" t="s" s="515">
+      <c r="H51" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I51" t="s">
         <v>641</v>
       </c>
-      <c r="J51" t="s" s="516">
+      <c r="J51" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K51" t="s">
         <v>642</v>
       </c>
-      <c r="L51" t="s" s="517">
+      <c r="L51" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M51" t="s">
         <v>643</v>
       </c>
-      <c r="N51" t="s" s="518">
+      <c r="N51" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O51" t="s">
         <v>615</v>
       </c>
-      <c r="P51" t="s" s="519">
+      <c r="P51" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q51" t="s">
         <v>613</v>
       </c>
-      <c r="R51" t="s" s="520">
-        <v>603</v>
-      </c>
-      <c r="S51" t="s" s="521">
-        <v>603</v>
-      </c>
-      <c r="T51" t="s" s="522">
+      <c r="R51" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S51" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T51" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="523">
+      <c r="A52" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="525">
+      <c r="B53" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C53" t="s">
@@ -13123,53 +12082,53 @@
       <c r="G53" t="s">
         <v>602</v>
       </c>
-      <c r="H53" t="s" s="526">
+      <c r="H53" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I53" t="s">
         <v>648</v>
       </c>
-      <c r="J53" t="s" s="527">
+      <c r="J53" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K53" t="s">
         <v>649</v>
       </c>
-      <c r="L53" t="s" s="528">
+      <c r="L53" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M53" t="s">
         <v>650</v>
       </c>
-      <c r="N53" t="s" s="529">
+      <c r="N53" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O53" t="s">
         <v>607</v>
       </c>
-      <c r="P53" t="s" s="530">
+      <c r="P53" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q53" t="s">
         <v>372</v>
       </c>
-      <c r="R53" t="s" s="531">
-        <v>603</v>
-      </c>
-      <c r="S53" t="s" s="532">
-        <v>603</v>
-      </c>
-      <c r="T53" t="s" s="533">
+      <c r="R53" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S53" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T53" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="534">
+      <c r="A54" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="536">
+      <c r="B55" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C55" t="s">
@@ -13187,53 +12146,53 @@
       <c r="G55" t="s">
         <v>602</v>
       </c>
-      <c r="H55" t="s" s="537">
+      <c r="H55" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I55" t="s">
         <v>648</v>
       </c>
-      <c r="J55" t="s" s="538">
+      <c r="J55" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K55" t="s">
         <v>649</v>
       </c>
-      <c r="L55" t="s" s="539">
+      <c r="L55" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M55" t="s">
         <v>650</v>
       </c>
-      <c r="N55" t="s" s="540">
+      <c r="N55" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O55" t="s">
         <v>609</v>
       </c>
-      <c r="P55" t="s" s="541">
+      <c r="P55" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q55" t="s">
         <v>610</v>
       </c>
-      <c r="R55" t="s" s="542">
-        <v>603</v>
-      </c>
-      <c r="S55" t="s" s="543">
-        <v>603</v>
-      </c>
-      <c r="T55" t="s" s="544">
+      <c r="R55" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S55" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T55" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="545">
+      <c r="A56" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="547">
+      <c r="B57" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C57" t="s">
@@ -13251,53 +12210,53 @@
       <c r="G57" t="s">
         <v>602</v>
       </c>
-      <c r="H57" t="s" s="548">
+      <c r="H57" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I57" t="s">
         <v>648</v>
       </c>
-      <c r="J57" t="s" s="549">
+      <c r="J57" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K57" t="s">
         <v>649</v>
       </c>
-      <c r="L57" t="s" s="550">
+      <c r="L57" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M57" t="s">
         <v>650</v>
       </c>
-      <c r="N57" t="s" s="551">
+      <c r="N57" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O57" t="s">
         <v>612</v>
       </c>
-      <c r="P57" t="s" s="552">
+      <c r="P57" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q57" t="s">
         <v>613</v>
       </c>
-      <c r="R57" t="s" s="553">
-        <v>603</v>
-      </c>
-      <c r="S57" t="s" s="554">
-        <v>603</v>
-      </c>
-      <c r="T57" t="s" s="555">
+      <c r="R57" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S57" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T57" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="556">
+      <c r="A58" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="558">
+      <c r="B59" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C59" t="s">
@@ -13315,53 +12274,53 @@
       <c r="G59" t="s">
         <v>602</v>
       </c>
-      <c r="H59" t="s" s="559">
+      <c r="H59" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I59" t="s">
         <v>648</v>
       </c>
-      <c r="J59" t="s" s="560">
+      <c r="J59" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K59" t="s">
         <v>649</v>
       </c>
-      <c r="L59" t="s" s="561">
+      <c r="L59" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M59" t="s">
         <v>650</v>
       </c>
-      <c r="N59" t="s" s="562">
+      <c r="N59" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O59" t="s">
         <v>615</v>
       </c>
-      <c r="P59" t="s" s="563">
+      <c r="P59" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q59" t="s">
         <v>613</v>
       </c>
-      <c r="R59" t="s" s="564">
-        <v>603</v>
-      </c>
-      <c r="S59" t="s" s="565">
-        <v>603</v>
-      </c>
-      <c r="T59" t="s" s="566">
+      <c r="R59" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S59" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T59" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="567">
+      <c r="A60" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="569">
+      <c r="B61" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C61" t="s">
@@ -13379,53 +12338,53 @@
       <c r="G61" t="s">
         <v>602</v>
       </c>
-      <c r="H61" t="s" s="570">
+      <c r="H61" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I61" t="s">
         <v>655</v>
       </c>
-      <c r="J61" t="s" s="571">
+      <c r="J61" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K61" t="s">
         <v>656</v>
       </c>
-      <c r="L61" t="s" s="572">
+      <c r="L61" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M61" t="s">
         <v>650</v>
       </c>
-      <c r="N61" t="s" s="573">
+      <c r="N61" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O61" t="s">
         <v>607</v>
       </c>
-      <c r="P61" t="s" s="574">
+      <c r="P61" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q61" t="s">
         <v>372</v>
       </c>
-      <c r="R61" t="s" s="575">
-        <v>603</v>
-      </c>
-      <c r="S61" t="s" s="576">
-        <v>603</v>
-      </c>
-      <c r="T61" t="s" s="577">
+      <c r="R61" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S61" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T61" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="578">
+      <c r="A62" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="580">
+      <c r="B63" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C63" t="s">
@@ -13443,53 +12402,53 @@
       <c r="G63" t="s">
         <v>602</v>
       </c>
-      <c r="H63" t="s" s="581">
+      <c r="H63" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I63" t="s">
         <v>655</v>
       </c>
-      <c r="J63" t="s" s="582">
+      <c r="J63" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K63" t="s">
         <v>656</v>
       </c>
-      <c r="L63" t="s" s="583">
+      <c r="L63" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M63" t="s">
         <v>650</v>
       </c>
-      <c r="N63" t="s" s="584">
+      <c r="N63" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O63" t="s">
         <v>609</v>
       </c>
-      <c r="P63" t="s" s="585">
+      <c r="P63" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q63" t="s">
         <v>610</v>
       </c>
-      <c r="R63" t="s" s="586">
-        <v>603</v>
-      </c>
-      <c r="S63" t="s" s="587">
-        <v>603</v>
-      </c>
-      <c r="T63" t="s" s="588">
+      <c r="R63" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S63" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T63" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="589">
+      <c r="A64" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="591">
+      <c r="B65" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C65" t="s">
@@ -13507,53 +12466,53 @@
       <c r="G65" t="s">
         <v>602</v>
       </c>
-      <c r="H65" t="s" s="592">
+      <c r="H65" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I65" t="s">
         <v>655</v>
       </c>
-      <c r="J65" t="s" s="593">
+      <c r="J65" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K65" t="s">
         <v>656</v>
       </c>
-      <c r="L65" t="s" s="594">
+      <c r="L65" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M65" t="s">
         <v>650</v>
       </c>
-      <c r="N65" t="s" s="595">
+      <c r="N65" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O65" t="s">
         <v>612</v>
       </c>
-      <c r="P65" t="s" s="596">
+      <c r="P65" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q65" t="s">
         <v>613</v>
       </c>
-      <c r="R65" t="s" s="597">
-        <v>603</v>
-      </c>
-      <c r="S65" t="s" s="598">
-        <v>603</v>
-      </c>
-      <c r="T65" t="s" s="599">
+      <c r="R65" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S65" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T65" t="s" s="258">
         <v>603</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="600">
+      <c r="A66" t="s" s="256">
         <v>284</v>
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="602">
+      <c r="B67" t="s" s="256">
         <v>284</v>
       </c>
       <c r="C67" t="s">
@@ -13571,43 +12530,43 @@
       <c r="G67" t="s">
         <v>602</v>
       </c>
-      <c r="H67" t="s" s="603">
+      <c r="H67" t="s" s="258">
         <v>603</v>
       </c>
       <c r="I67" t="s">
         <v>655</v>
       </c>
-      <c r="J67" t="s" s="604">
+      <c r="J67" t="s" s="258">
         <v>603</v>
       </c>
       <c r="K67" t="s">
         <v>656</v>
       </c>
-      <c r="L67" t="s" s="605">
+      <c r="L67" t="s" s="258">
         <v>603</v>
       </c>
       <c r="M67" t="s">
         <v>650</v>
       </c>
-      <c r="N67" t="s" s="606">
+      <c r="N67" t="s" s="258">
         <v>603</v>
       </c>
       <c r="O67" t="s">
         <v>615</v>
       </c>
-      <c r="P67" t="s" s="607">
+      <c r="P67" t="s" s="258">
         <v>603</v>
       </c>
       <c r="Q67" t="s">
         <v>613</v>
       </c>
-      <c r="R67" t="s" s="608">
-        <v>603</v>
-      </c>
-      <c r="S67" t="s" s="609">
-        <v>603</v>
-      </c>
-      <c r="T67" t="s" s="610">
+      <c r="R67" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="S67" t="s" s="258">
+        <v>603</v>
+      </c>
+      <c r="T67" t="s" s="258">
         <v>603</v>
       </c>
     </row>
